--- a/test/bpmn-files/Adjustments.xlsx
+++ b/test/bpmn-files/Adjustments.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Prem.Sai\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\nrepos\oe-workflow\test\bpmn-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,9 +29,6 @@
     <t>Customer</t>
   </si>
   <si>
-    <t>Order size</t>
-  </si>
-  <si>
     <t>Discount</t>
   </si>
   <si>
@@ -81,6 +78,9 @@
   </si>
   <si>
     <t>"Air","Ground"</t>
+  </si>
+  <si>
+    <t>OrderSize</t>
   </si>
 </sst>
 </file>
@@ -546,7 +546,7 @@
   <dimension ref="B4:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -559,7 +559,7 @@
   <sheetData>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
@@ -568,31 +568,31 @@
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="18" t="s">
         <v>7</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>8</v>
       </c>
       <c r="F5" s="15"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" s="16" t="s">
         <v>0</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F6" s="15"/>
     </row>
@@ -601,25 +601,25 @@
       <c r="C7" s="17"/>
       <c r="D7" s="17"/>
       <c r="E7" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="9"/>
       <c r="C8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="F8" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
@@ -627,13 +627,13 @@
         <v>1</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F9" s="1">
         <v>0.1</v>
@@ -645,10 +645,10 @@
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F10" s="2">
         <v>0.15</v>
@@ -659,13 +659,13 @@
         <v>3</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F11" s="1">
         <v>0.05</v>
